--- a/model-performance-evaluation.xlsx
+++ b/model-performance-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdur\Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114AAEDE-EFC4-43A8-8571-157911AE98A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD19B60-4705-4FF8-A94A-69083A05174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1575" yWindow="2100" windowWidth="26985" windowHeight="15435" xr2:uid="{8B2275C6-D3AD-4E7D-A717-C3E062F55AF6}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>0.91900000000000004</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>-6.2089999999999996</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,13 +559,13 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
